--- a/controllers/exportdata.xlsx
+++ b/controllers/exportdata.xlsx
@@ -567,7 +567,7 @@
         <v>call/admin</v>
       </c>
       <c r="D6" t="str">
-        <v>unread</v>
+        <v>read</v>
       </c>
       <c r="E6" t="str">
         <v>2022-03-30T18:35:45.842Z</v>

--- a/controllers/exportdata.xlsx
+++ b/controllers/exportdata.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,31 +436,31 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>62400d848d6045d11120d8c5</v>
+        <v>624d4e087dfc6499a4d9e86a</v>
       </c>
       <c r="B2" t="str">
-        <v>mritunjay is ASKING FOR A QUERY</v>
+        <v>company registration</v>
       </c>
       <c r="C2" t="str">
         <v>query</v>
       </c>
       <c r="D2" t="str">
-        <v>read</v>
+        <v>unread</v>
       </c>
       <c r="E2" t="str">
-        <v>2022-03-27T07:08:52.337Z</v>
+        <v>2022-04-06T08:23:36.528Z</v>
       </c>
       <c r="F2" t="str">
-        <v>62400cde8d6045d11120d87c</v>
+        <v>6245531a365dd756370800cc</v>
       </c>
       <c r="G2" t="str">
-        <v>mritunjay agarwal</v>
+        <v>tarun</v>
       </c>
       <c r="H2">
-        <v>8630123789</v>
+        <v>9990905006</v>
       </c>
       <c r="I2" t="str">
-        <v>lololo@kkk.com</v>
+        <v>catarun1990@gmail.com</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,31 +468,31 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>624064461eda302ccc62a137</v>
+        <v>624d4e4b7dfc6499a4d9e883</v>
       </c>
       <c r="B3" t="str">
-        <v>Hey I need a Query regarding the income tax filing</v>
+        <v>ISO registration krwa de bhai</v>
       </c>
       <c r="C3" t="str">
         <v>query</v>
       </c>
       <c r="D3" t="str">
-        <v>read</v>
+        <v>unread</v>
       </c>
       <c r="E3" t="str">
-        <v>2022-03-27T13:19:02.987Z</v>
+        <v>2022-04-06T08:24:43.243Z</v>
       </c>
       <c r="F3" t="str">
-        <v>624063f01eda302ccc62a0d5</v>
+        <v>624d46f77dfc6499a4d9e645</v>
       </c>
       <c r="G3" t="str">
-        <v>mritunjay</v>
+        <v>tarun</v>
       </c>
       <c r="H3">
-        <v>8630123789</v>
+        <v>9990905006</v>
       </c>
       <c r="I3" t="str">
-        <v>mritunjayagarwal96@gmail.com</v>
+        <v>catarun1990@gmail.com</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -500,28 +500,31 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>6240cba201939e9e4c9b1a1c</v>
+        <v>624eccbbde231591ea8e59ae</v>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>tm registration</v>
       </c>
       <c r="C4" t="str">
-        <v>call/admin</v>
+        <v>query</v>
       </c>
       <c r="D4" t="str">
         <v>unread</v>
       </c>
       <c r="E4" t="str">
-        <v>2022-03-27T20:40:02.013Z</v>
+        <v>2022-04-07T11:36:27.823Z</v>
+      </c>
+      <c r="F4" t="str">
+        <v>62455364365dd75637080144</v>
       </c>
       <c r="G4" t="str">
-        <v>admin check</v>
+        <v>mayank aggarwal</v>
       </c>
       <c r="H4">
-        <v>9999080899</v>
+        <v>9000348821</v>
       </c>
       <c r="I4" t="str">
-        <v>check@lekalkaam.com</v>
+        <v>mayank.agarwal@perfeatofoods.com</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -529,7 +532,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>6244a257770dd69ab2dd2de3</v>
+        <v>625086ef15c4166d14d581bb</v>
       </c>
       <c r="B5" t="str">
         <v/>
@@ -541,13 +544,13 @@
         <v>unread</v>
       </c>
       <c r="E5" t="str">
-        <v>2022-03-30T18:32:55.865Z</v>
+        <v>2022-04-08T19:03:11.426Z</v>
       </c>
       <c r="G5" t="str">
         <v>mritunjay agarwal</v>
       </c>
       <c r="H5">
-        <v>8445741665</v>
+        <v>8630123789</v>
       </c>
       <c r="I5" t="str">
         <v>mritunjayagarwal96@gmail.com</v>
@@ -558,7 +561,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>6244a30109c521aa98fe1570</v>
+        <v>6250876b15c4166d14d581c5</v>
       </c>
       <c r="B6" t="str">
         <v/>
@@ -567,19 +570,19 @@
         <v>call/admin</v>
       </c>
       <c r="D6" t="str">
-        <v>read</v>
+        <v>unread</v>
       </c>
       <c r="E6" t="str">
-        <v>2022-03-30T18:35:45.842Z</v>
+        <v>2022-04-08T19:05:15.116Z</v>
       </c>
       <c r="G6" t="str">
-        <v>gyan prakash gupta</v>
+        <v>mritunjay agarwal</v>
       </c>
       <c r="H6">
-        <v>8269870486</v>
+        <v>8533546599</v>
       </c>
       <c r="I6" t="str">
-        <v>lololo@kkk.com</v>
+        <v>mritunjayagarwal96@gmail.com</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -587,7 +590,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>6244a32a09c521aa98fe157f</v>
+        <v>625088c3632722cbfa7abff0</v>
       </c>
       <c r="B7" t="str">
         <v/>
@@ -599,13 +602,13 @@
         <v>unread</v>
       </c>
       <c r="E7" t="str">
-        <v>2022-03-30T18:36:26.682Z</v>
+        <v>2022-04-08T19:10:59.577Z</v>
       </c>
       <c r="G7" t="str">
         <v>mritunjay agarwal</v>
       </c>
       <c r="H7">
-        <v>8445741665</v>
+        <v>8630123789</v>
       </c>
       <c r="I7" t="str">
         <v>mritunjayagarwal96@gmail.com</v>
@@ -614,9 +617,742 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>62511710632722cbfa7ac106</v>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D8" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2022-04-09T05:18:08.539Z</v>
+      </c>
+      <c r="G8" t="str">
+        <v>bb</v>
+      </c>
+      <c r="H8">
+        <v>7676767676</v>
+      </c>
+      <c r="I8" t="str">
+        <v>hh@gg.com</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>6251172e632722cbfa7ac10d</v>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D9" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2022-04-09T05:18:38.270Z</v>
+      </c>
+      <c r="G9" t="str">
+        <v>mritunjay agarwal</v>
+      </c>
+      <c r="H9">
+        <v>7898765456</v>
+      </c>
+      <c r="I9" t="str">
+        <v>jaiswalharsh201@gmail.com</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>62511aeb632722cbfa7ac128</v>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D10" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E10" t="str">
+        <v>2022-04-09T05:34:35.028Z</v>
+      </c>
+      <c r="G10" t="str">
+        <v>mritunjay agarwal</v>
+      </c>
+      <c r="H10">
+        <v>8630123678</v>
+      </c>
+      <c r="I10" t="str">
+        <v>mritunjayagarwal96@gmail.com</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>625123765597ce0732f81ba4</v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D11" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2022-04-09T06:11:02.217Z</v>
+      </c>
+      <c r="G11" t="str">
+        <v>mritunjay agarwal</v>
+      </c>
+      <c r="H11">
+        <v>865521221</v>
+      </c>
+      <c r="I11" t="str">
+        <v>mritunjayagarwal96@gmail.com</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>6251246a59d10e2d046dc049</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D12" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2022-04-09T06:15:06.152Z</v>
+      </c>
+      <c r="G12" t="str">
+        <v>harshit jaiswal</v>
+      </c>
+      <c r="H12">
+        <v>11111124356489</v>
+      </c>
+      <c r="I12" t="str">
+        <v>jaiswalharsh201@gmail.com</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>6251249f59d10e2d046dc055</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D13" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E13" t="str">
+        <v>2022-04-09T06:15:59.537Z</v>
+      </c>
+      <c r="G13" t="str">
+        <v>mritunjayagarwal</v>
+      </c>
+      <c r="H13">
+        <v>8630123789</v>
+      </c>
+      <c r="I13" t="str">
+        <v>mongodbid@gmail.com</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>6251297459d10e2d046dc0ef</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Please call</v>
+      </c>
+      <c r="C14" t="str">
+        <v>query</v>
+      </c>
+      <c r="D14" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2022-04-09T06:36:36.550Z</v>
+      </c>
+      <c r="F14" t="str">
+        <v>62455625365dd7563708043a</v>
+      </c>
+      <c r="G14" t="str">
+        <v>ankur gupta</v>
+      </c>
+      <c r="H14">
+        <v>9990905006</v>
+      </c>
+      <c r="I14" t="str">
+        <v>catarun1990@gmail.com</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>625598ae0cf74e49f23f2147</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D15" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E15" t="str">
+        <v>2022-04-12T15:20:14.209Z</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>625598b00cf74e49f23f214e</v>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D16" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E16" t="str">
+        <v>2022-04-12T15:20:16.296Z</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>62559f890cf74e49f23f22a2</v>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D17" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E17" t="str">
+        <v>2022-04-12T15:49:29.565Z</v>
+      </c>
+      <c r="G17" t="str">
+        <v>ss ss</v>
+      </c>
+      <c r="H17">
+        <v>2570155</v>
+      </c>
+      <c r="I17" t="str">
+        <v>shikhar65rahulvihar@gmail.com</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>6255a1f9415b1171477d4f98</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D18" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E18" t="str">
+        <v>2022-04-12T15:59:53.335Z</v>
+      </c>
+      <c r="G18" t="str">
+        <v>ss ss</v>
+      </c>
+      <c r="H18">
+        <v>2570155</v>
+      </c>
+      <c r="I18" t="str">
+        <v>shikhar65rahulvihar@gmail.com</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>6255c270415b1171477d4fbd</v>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D19" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E19" t="str">
+        <v>2022-04-12T18:18:24.576Z</v>
+      </c>
+      <c r="G19" t="str">
+        <v>harshit jaiswal</v>
+      </c>
+      <c r="H19">
+        <v>123658974</v>
+      </c>
+      <c r="I19" t="str">
+        <v>jaiswalharsh201@gmail.com</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>6255cdd1415b1171477d4fcf</v>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D20" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E20" t="str">
+        <v>2022-04-12T19:06:57.273Z</v>
+      </c>
+      <c r="G20" t="str">
+        <v>mritunjay agarwal</v>
+      </c>
+      <c r="H20">
+        <v>8630123789</v>
+      </c>
+      <c r="I20" t="str">
+        <v>mritunjay.agarwal_cs.aiml20@gla.ac.in</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>625656dbf4cec8cd3b8c883c</v>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D21" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E21" t="str">
+        <v>2022-04-13T04:51:39.249Z</v>
+      </c>
+      <c r="G21" t="str">
+        <v>mritunjay agarwal</v>
+      </c>
+      <c r="H21">
+        <v>8676778788</v>
+      </c>
+      <c r="I21" t="str">
+        <v>mritunjayagarwal96@gmail.com</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>625d9a277b18f38b4ff2e7a2</v>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D22" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E22" t="str">
+        <v>2022-04-18T17:04:39.135Z</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>625d9a2a7b18f38b4ff2e7a9</v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D23" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E23" t="str">
+        <v>2022-04-18T17:04:42.152Z</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>625ee27d95357f84a0aba487</v>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D24" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E24" t="str">
+        <v>2022-04-19T16:25:33.851Z</v>
+      </c>
+      <c r="G24" t="str">
+        <v>harshit jaiswal</v>
+      </c>
+      <c r="H24">
+        <v>7454922235</v>
+      </c>
+      <c r="I24" t="str">
+        <v>jaiswalharsh201@gmail.com</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>625ff5bd77a47824691b4131</v>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D25" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E25" t="str">
+        <v>2022-04-20T11:59:57.901Z</v>
+      </c>
+      <c r="G25" t="str">
+        <v>legalkaam.com ugrfeiohofidsksmvnjdbvsijf94t9u5t0i4r94ijgrjght9y84r49t64rkowf0ereiuguejdkwdiweofuehdskodjjdgofjsoddggfsidj</v>
+      </c>
+      <c r="H25">
+        <v>88645491827</v>
+      </c>
+      <c r="I25" t="str">
+        <v>ksenofontmaidanov+4x2g@mail.ru</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>6261088c77a47824691b4463</v>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D26" t="str">
+        <v>read</v>
+      </c>
+      <c r="E26" t="str">
+        <v>2022-04-21T07:32:28.780Z</v>
+      </c>
+      <c r="G26" t="str">
+        <v>8572090111</v>
+      </c>
+      <c r="H26">
+        <v>8572090111</v>
+      </c>
+      <c r="I26" t="str">
+        <v>golugagan8572090111@gmail.com</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>6261088d77a47824691b4469</v>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D27" t="str">
+        <v>read</v>
+      </c>
+      <c r="E27" t="str">
+        <v>2022-04-21T07:32:29.973Z</v>
+      </c>
+      <c r="G27" t="str">
+        <v>8572090111</v>
+      </c>
+      <c r="H27">
+        <v>8572090111</v>
+      </c>
+      <c r="I27" t="str">
+        <v>golugagan8572090111@gmail.com</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>62682859cef710afdd9f54b4</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="C28" t="str">
+        <v>query</v>
+      </c>
+      <c r="D28" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E28" t="str">
+        <v>2022-04-26T17:14:01.109Z</v>
+      </c>
+      <c r="F28" t="str">
+        <v>6245ac68458543ecb0a2b6fe</v>
+      </c>
+      <c r="G28" t="str">
+        <v>swati goyal</v>
+      </c>
+      <c r="H28">
+        <v>9654097188</v>
+      </c>
+      <c r="I28" t="str">
+        <v>catarun1990@gmail.com</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>6269812ccef710afdd9f5bbc</v>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v>call/admin</v>
+      </c>
+      <c r="D29" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E29" t="str">
+        <v>2022-04-27T17:45:16.559Z</v>
+      </c>
+      <c r="G29" t="str">
+        <v>mritunjay agarwal</v>
+      </c>
+      <c r="H29">
+        <v>8533879899</v>
+      </c>
+      <c r="I29" t="str">
+        <v>mritunjayagarwal96@gmail.com</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>6269814ecef710afdd9f5bcd</v>
+      </c>
+      <c r="B30" t="str">
+        <v>8555555</v>
+      </c>
+      <c r="C30" t="str">
+        <v>query</v>
+      </c>
+      <c r="D30" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E30" t="str">
+        <v>2022-04-27T17:45:50.555Z</v>
+      </c>
+      <c r="F30" t="str">
+        <v>624555be365dd75637080386</v>
+      </c>
+      <c r="G30" t="str">
+        <v>mritunjay agarwal</v>
+      </c>
+      <c r="H30">
+        <v>918445741665</v>
+      </c>
+      <c r="I30" t="str">
+        <v>mritunjayagarwal96@gmail.com</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>626b7ba24d6736cdebc543b0</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Hi</v>
+      </c>
+      <c r="C31" t="str">
+        <v>query</v>
+      </c>
+      <c r="D31" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E31" t="str">
+        <v>2022-04-29T05:46:10.590Z</v>
+      </c>
+      <c r="F31" t="str">
+        <v>624555f2365dd756370803e0</v>
+      </c>
+      <c r="G31" t="str">
+        <v>tarun</v>
+      </c>
+      <c r="H31">
+        <v>9990905006</v>
+      </c>
+      <c r="I31" t="str">
+        <v>catarun1990@gmail.com</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>626bf3004d6736cdebc61397</v>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v>callback</v>
+      </c>
+      <c r="D32" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E32" t="str">
+        <v>2022-04-29T14:15:28.078Z</v>
+      </c>
+      <c r="G32" t="str">
+        <v>anil verma</v>
+      </c>
+      <c r="H32">
+        <v>9910001868</v>
+      </c>
+      <c r="I32" t="str">
+        <v>anil-verma@hotmail.com</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>626c085b4d6736cdebc613f5</v>
+      </c>
+      <c r="B33" t="str">
+        <v>message</v>
+      </c>
+      <c r="C33" t="str">
+        <v>query</v>
+      </c>
+      <c r="D33" t="str">
+        <v>unread</v>
+      </c>
+      <c r="E33" t="str">
+        <v>2022-04-29T15:46:35.662Z</v>
+      </c>
+      <c r="F33" t="str">
+        <v>624550f6365dd7563707fde9</v>
+      </c>
+      <c r="G33" t="str">
+        <v>mritunjay agarwal</v>
+      </c>
+      <c r="H33">
+        <v>918445741665</v>
+      </c>
+      <c r="I33" t="str">
+        <v>mritunjayagarwal96@gmail.com</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J33"/>
   </ignoredErrors>
 </worksheet>
 </file>